--- a/DOC/製造/ソース取得.xlsx
+++ b/DOC/製造/ソース取得.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\会社\会社\Softtech\社内インフラ\社内管理システム\製造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F28A9F-806C-4A0E-B961-48A484B6BD26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA28DC-2173-425D-9F05-48D15A2B3B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1065" windowWidth="26625" windowHeight="13470" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
+    <workbookView minimized="1" xWindow="1900" yWindow="790" windowWidth="12940" windowHeight="10010" activeTab="1" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Springboot(ems)" sheetId="5" r:id="rId1"/>
@@ -88,18 +88,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +108,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -543,8 +543,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="41929050"/>
-          <a:ext cx="9487642" cy="7114320"/>
+          <a:off x="609600" y="32486600"/>
+          <a:ext cx="8503392" cy="5523645"/>
           <a:chOff x="670560" y="40264080"/>
           <a:chExt cx="9304762" cy="6838095"/>
         </a:xfrm>
@@ -658,8 +658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="754380" y="49293780"/>
-          <a:ext cx="9344785" cy="6361937"/>
+          <a:off x="678180" y="38193980"/>
+          <a:ext cx="8360535" cy="4942712"/>
           <a:chOff x="670560" y="47350680"/>
           <a:chExt cx="9161905" cy="6104762"/>
         </a:xfrm>
@@ -1362,47 +1362,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6F51C5-C72E-4512-A6A8-B3CF2C294FEB}">
   <dimension ref="A2:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A264" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" ht="20.5" customHeight="1"/>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="12:13">
       <c r="M103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="12:13">
       <c r="M104" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="12:13">
       <c r="L105" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -1427,23 +1427,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B38CE7-FEBD-40EF-8F42-A30196CBC74B}">
   <dimension ref="M57:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="57" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="13:13">
       <c r="M57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="13:13">
       <c r="M58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="13:13">
       <c r="M59" t="s">
         <v>5</v>
       </c>

--- a/DOC/製造/ソース取得.xlsx
+++ b/DOC/製造/ソース取得.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\製造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA28DC-2173-425D-9F05-48D15A2B3B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746C8EA-2B05-4D64-BC23-010ECE7FD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1900" yWindow="790" windowWidth="12940" windowHeight="10010" activeTab="1" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Springboot(ems)" sheetId="5" r:id="rId1"/>
-    <sheet name="CommonDataInput(Batch)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1)作業中ソースをバックアップ（なければ、略）</t>
     <rPh sb="2" eb="4">
@@ -79,36 +78,23 @@
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>https://github.com/softtechSoft/CommonDataInput.git</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -131,24 +117,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,8 +522,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="609600" y="32486600"/>
-          <a:ext cx="8503392" cy="5523645"/>
+          <a:off x="685800" y="41929050"/>
+          <a:ext cx="9487642" cy="7114320"/>
           <a:chOff x="670560" y="40264080"/>
           <a:chExt cx="9304762" cy="6838095"/>
         </a:xfrm>
@@ -658,8 +637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="678180" y="38193980"/>
-          <a:ext cx="8360535" cy="4942712"/>
+          <a:off x="754380" y="49293780"/>
+          <a:ext cx="9344785" cy="6361937"/>
           <a:chOff x="670560" y="47350680"/>
           <a:chExt cx="9161905" cy="6104762"/>
         </a:xfrm>
@@ -745,319 +724,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113448</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>132705</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1277C8A-7B58-4840-8461-DE1BE54A4053}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="228600"/>
-          <a:ext cx="6819048" cy="5161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113448</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>132705</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C2B7BE-A22E-4877-BDCE-E05C4797AC8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="5715000"/>
-          <a:ext cx="6819048" cy="5161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113448</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>180238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B4E7C1-9BE6-41D5-AE07-00CBEE44FD97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="11201400"/>
-          <a:ext cx="6819048" cy="5895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113448</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>180238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD163203-4825-4B57-B268-9083F319B05C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="17373600"/>
-          <a:ext cx="6819048" cy="5895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113448</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>180238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B738AB-21DB-46F9-B61B-A867FF402D7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="23545800"/>
-          <a:ext cx="6819048" cy="5895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>587482</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>208695</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402FDB0F-0D55-4535-BDC4-0284C7411D98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="29718000"/>
-          <a:ext cx="9304762" cy="6838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333800</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BBC89D-D00F-4F8B-87ED-B5186950AF65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="36804600"/>
-          <a:ext cx="8380520" cy="4495800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1362,47 +1028,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6F51C5-C72E-4512-A6A8-B3CF2C294FEB}">
   <dimension ref="A2:M235"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="S228" sqref="S228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20.5" customHeight="1"/>
-    <row r="27" spans="1:1">
+    <row r="26" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="12:13">
+    <row r="103" spans="12:13" x14ac:dyDescent="0.4">
       <c r="M103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="12:13">
+    <row r="104" spans="12:13" x14ac:dyDescent="0.4">
       <c r="M104" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="12:13">
+    <row r="105" spans="12:13" x14ac:dyDescent="0.4">
       <c r="L105" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -1421,40 +1087,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B38CE7-FEBD-40EF-8F42-A30196CBC74B}">
-  <dimension ref="M57:M59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="57" spans="13:13">
-      <c r="M57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="13:13">
-      <c r="M58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="13:13">
-      <c r="M59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="M57" r:id="rId1" xr:uid="{92F387D4-5D54-49DA-8440-38C83188B8C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>